--- a/500all/speech_level/speeches_CHRG-114hhrg97756.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97756.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Loudermilk. The Subcommittee on Oversight and Energy will come to order.    Without objection, the Chair is authorized to declare recess of the Subcommittee at any time.    Good morning. I would like to thank our witnesses for being here today. I appreciate the witnesses' patience and understanding as we had to postpone this hearing from July. And I look forward to the testimony today that will help us examine the vulnerabilities of America's power supply.    Welcome to today's joint subcommittee hearing entitled ``Examining the Vulnerabilities of America's Power Supply.'' Due to time constraints and in the interest of allowing our witnesses to be heard and their questions answered, I will submit my opening statement for the record and I encourage others to do so as well.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Mr. Chairman, respecting your fine example, I will also submit mine for the record.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you. My opening statement is that I submit my opening statement for the record. Welcome.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>412276</t>
   </si>
   <si>
-    <t>Alan Grayson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grayson. Ditto.</t>
   </si>
   <si>
@@ -100,39 +88,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Lordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lordan. Good morning, Chairman Weber and Mr. Loudermilk, Vice Chairman Knight and Johnson, Ranking Members Mr. Beyer, and members of the subcommittees. I am Richard Lordan, Senior Technical Executive at EPRI Transmission. I'm pleased to testify today on vulnerabilities of the electric grid.    For those of you who don't know, EPRI is a 501(c)(3) nonprofit organization that conducts research and development relating to generation, delivery, and use of electricity for the benefit of the public. EPRI's members represent approximately 90 percent of the electricity generated and delivered in the United States. International participation extends to over 30 countries.    So my testimony is going to be kind of in two parts. One is on the general vulnerability of the grid and then I'm going to bore down on one threat which is electromagnetic pulse.    When I talk about the vulnerability of the grid, I'm really talking about vulnerability to high-impact, low-frequency events. They called them HILF events, and they are rare but they have a high impact. And some of these things include natural events like severe weather, earthquakes, geomagnetic disturbances, and also manmade threats like physical security and EMP, which I'm going to talk about today.    So you asked about the vulnerability of the grid, and there are inherent vulnerabilities in the grid to these threats because the severity is generally higher than the design basis for the system. To completely eliminate these vulnerabilities would be cost prohibitive. It would defeat the industry's objective of providing reliable, safe, environmentally acceptable, and affordable power.    EPRI supports a prudent approach where you assess the vulnerabilities from all of these threats, calculate the impact should these events occur, and develop cost-effective countermeasures that improve transmission system resiliency.    I'm now going to talk about EMP with a comparison to geomagnetic disturbance. EMP and GMD are often conflated but there are important differences that I'll highlight. Dr. Baker could probably add some more. EMP, electromagnetic pulse, refers to a very intense pulse of electromagnetic energy typically caused by the detonation of a nuclear device or other high-energy explosive device.    There are three stages of an EMP and I'm pretty sure you know what they are but I'll do it again: E1, E2, and E3. The E1 is characterized by an incredibly fast rise time high-energy pulse. It has the ability to destroy electronics in the power system, and it affects itself by the electric field itself or by coupling to wires that are attached to these devices.    The E2 is similar to lightning and consequently can result in damage to electronics and potential flashover of distribution class insulation.    E3 is characterized by a longer duration, low-frequency content similar to GMD, and that's why people talk about EMP and GMD together. But the E3 part of EMP is much shorter than a GMD, and therefore, it will not have the consequence of transformer overheating and failure. It does have the ability to saturate transformers and transformers will create harmonics. They'll consume reactive power and there may be voltage collapse on the system.    With regard to risk management of these threats, so we talked about EMP and vulnerability. EPRI is leading an effort with the industry to characterize each of these threats, whether it's EMP, GMD, physical security or cyber, characterize the threat, then identify the key component--key components in the system and understand the vulnerability of those components, then assess the impact should this event happen. What's the effect on the system and what's the societal cost? Then we develop and assess mitigation strategies that will buy down that risk.    And lastly, after we've done all the different threats one by one, we support looking sideways and seeing, hey, are there any mitigation strategies that also support multiple threat that would improve your business case by increasing transmission resiliency?    So thank you again for inviting EPRI here today and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Loudermilk. I now recognize Ms. Bartol for five minutes to present her testimony.</t>
   </si>
   <si>
-    <t>Bartol</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bartol. Good morning, Mr. Chairman, and Members of the Subcommittee. My name is Nadya Bartol. I'm the Vice President of Industry Affairs and Cybersecurity Strategist at the Utilities Telecom Council. Thank you for the opportunity to testify today about the vulnerabilities of America's power supply.    UTC is a global trade association for the communications and information technology interest of electric, gas, and water utilities; pipeline companies; and other critical infrastructure industries.    Cybersecurity is a serious concern with respect to great vulnerability. It is a complex challenge that requires comprehensive process-driven solutions. It is and will remain a risk we must actively manage as long as society wants to have the conveniences of a modern world increasingly underpinned and enabled by smart interconnected technologies.    Some of the variables in the complex cybersecurity grid vulnerability landscape are outside of our span of control. Although there are a number of variables within our control, there's no easy way to fix them either, as mitigating those variables to an acceptable level may take a long time.    With respect to what is outside of our span of control, the grid is vulnerable to a variety of threats, including individual hackers, activist groups, cyber criminals, and nation states.    With respect to what is within our span of control, those vulnerabilities are related to the shortage of qualified cybersecurity workforce, age of legacy infrastructure, lack of legal framework for information sharing, and evolving practices for assuring security in supplier products and services.    The 2015 Global Information Security Workforce Study, an international survey of nearly 14,000 information security professionals published by ISC2, estimates the shortfall in the global information security workforce to reach 1.5 million by 2020. This problem is exacerbated in the energy space because we have two different sets of systems: systems that run the grid, referred to as operational technology (OT) and business systems that we refer to as information technology (IT). These two sets of systems command a different set of priorities that are served by individuals with different backgrounds, different vocabularies, and different goals and objectives.    We need to educate and train more people with a skill set blended across those two types of systems, IT and OT, in order to make a noticeable difference. This challenge impacts the energy utilities, numerous vendors that supply systems for the grid, as well as the integrators who design and integrate larger, more complex systems for utilities. The deficit of cybersecurity workforce permeates all levels of the energy utility organization, and the same is true for the entire energy utility ICS and ICT supply chain.    The technology of the grid is in itself a cybersecurity concern. The grid is based on layers that have accumulated over time, and the legacy structure was not designed to be secured because security was not a concern when that infrastructure was implemented. And utilities have been utilizing a variety of technologies, methods, and techniques to help manage and mitigate some legacy infrastructure's vulnerabilities. However, this is an ongoing concern, and acquiring and implementing such technologies, modifying network architectures, or replacing legacy infrastructure takes time and resources.    The energy sector suffers from inconsistent threat information throughout the sector. Progress has been made but we still need a legal framework for information sharing that would remove the barriers that remain. Building robust systems that can be resilient in the face of cybersecurity threats requires considering security from inception. Utilities rely on vendors for systems design, development, implementation, and maintenance and are working on their approaches to productively communicate their assurance needs and then monitor the underperformance against those.    Recently published standards and best practices provide requirements, methods, and techniques that help address this challenge. This includes NIST Cybersecurity Framework which is broadly used in the energy space.    Cybersecurity is a complex challenge that cannot be solved overnight or permanently. It does not lend itself to a cookbook of solutions, nor can we envision every possible scenario to mitigate. We're dealing with an asymmetric threat. However, we can act to reduce the cyber-related vulnerabilities of the grid. These actions include increasing supply of cybersecurity workforce that understands both IT and OT contexts, financially enable utilities to upgrade or phase out their legacy infrastructures, enacting information-sharing legislation that removes current barriers, and supporting industry-based standardization and NIST framework implementation to help integrate security considerations into current and future technologies.    I look forward to further dialogue.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Loudermilk. Thank you, Ms. Bartol.    I now recognize Dr. Baker for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Baker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Baker. Thank you, Mr. Chairman.    Extreme space weather events pose a threat to all forms of modern high technology, particularly the backbone provided by the electric power grid. The occurrence of severe space weather impacting our nation's infrastructure is not a question of ``if'' but ``when.'' My group studied a powerful solar storm that occurred just three years ago on the 23rd of July 2012. This solar eruption produced a coronal mass ejection that moved from the sun's to the distance of Earth orbit in only about 15 hours. This is among the very fastest-moving solar blasts ever witnessed in the space age. It was a ferocious disturbance that fortunately was directed somewhat away from Earth. We realized that a direct hit by such an extreme coronal mass ejection would cause widespread power blackouts, disabling everything that uses electricity.    According to a 2009 study from the U.S. National Academies, the total economic impact from an event of this sort could exceed $2 trillion or 20 times greater than the cost of Hurricane Katrina. Multi-ton power grid transformers disabled by such a storm could take years to repair or replace.    The current capability of our technological society to predict space weather is primitive. Through programs supported by the National Science Foundation, NASA, NOAA, we observe the sun, and we can see the general properties of the expansion of the solar atmosphere and powerful solar storms heading in our general direction. However, the measurements at the first Lagrangian point provide only about 4five minutes of warning at best as to what will impact Earth. This is insufficient time for implementing most mitigation strategies.    I spent two sobering days on the 20th and 21st of July at the 6th Electric Infrastructure Security Summit here on Capitol Hill. Representatives from over 20 world nations attended the EIS Summit. CEOs from key electric power utilities and leaders from the U.S. military and several federal agencies spent time grappling with the immense challenges that would result if nuclear EMP or geomagnetic disturbances were to take down the North American power grid. In the EIS world, such events are termed ``Black Sky'' days. The 100-plus EIS delegates acknowledged that the collapse of the power system would be devastating, and that industry, government, and academia must all work together to the greatest degree possible to minimize the impact when such a Black Sky day occurs.    In space weather, as in many things, forewarned is forearmed. Many studies have shown that improved prediction of space weather would have important economic impacts on our society in the same way that improved terrestrial weather forecasts have greatly improved our economic wellbeing and the quality of daily lives.    Is our problem of improving space weather forecasting hopeless? Absolutely not. But it will require a substantially increased and dedicated government research program. Government-funded programs must be chosen to advance our civilization, our strategic importance in the world. In fact, efforts that would result in sufficient space weather prediction capability would be among our highest national--should be among our highest national priorities. Unfortunately, today's federal investments and policies are not aligned with this set of space weather needs.    The U.S. National Academies published a Decadal Survey in Solar and Space Physics in 2012. I was privileged to chair that activity. The Decadal Survey established the priorities for research relevant for space weather and basic research for NASA and NSF in the years 2013 to 2022. However, to date, NASA has not requested, nor has Congress funded, any of the significant initiatives recommended by the Decadal Survey.    The Heliophysics Division of NASA, which has the main responsibility for the research required to improve space weather predictions, is NASA's smallest science division. NSF space weather activities are only a small part of the geosciences division with many high priorities for other research areas. NOAA has the responsibility for making the actual space weather forecasts through the Boulder space-based--Space Weather Prediction Center, but these forecasts can only be based upon larger research efforts supported by the NSF and NASA.    A very substantial program was envisioned in the Decadal Survey that would build on the--a true operational 24/7 national space weather program. This would be a large investment but is essential for our nation's future. A key activity now underway is--by the federal agencies to address the Federal Space Weather Framework, as identified by the acronym SWORM with funding appropriately above the Decadal minimum level, the Decadal plan and the SWORM implementation plan could yield the required predictions in sufficient time.    The existential threat to our society represented by severe space weather events, especially to the national power grid, demand a similar national commitment even in these times of fiscal constraint. The nation should issue a challenge to the space research community to provide the predictive capability for space weather sufficient to make our economy more resilient and to reduce to an acceptable level our national vulnerabilities. The nation should recognize that this is a pressing challenge and that substantial resources will be required. In return, the space research community must give its common pledge that it will deliver what the nation requires. I would respectfully suggest that the time for budgetary and policy action is now.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Loudermilk. Thank you, Dr. Baker.    I now recognize Dr. Morgan for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>412485</t>
-  </si>
-  <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Morgan. Good morning. And thanks very much to Chairman Smith, Loudermilk, and Weber, and Ranking Members Johnson, Beyer, and Grayson for the opportunity to testify today.    As you heard, my name is Granger Morgan. I'm a professor at Carnegie Mellon, where I work on issues in engineering and public policy, including issues in the power system, often with the National Academy of Sciences, of which I'm a member.    Unlike food and water, none of us consume electricity directly. Rather, we consume the services that electricity makes possible, and those services have become ever more critical to the safe, effective, and productive functioning of our lives as individuals and to our society and hence also to our national security.    Today, I'll talk about three things: 1) Strategies to avoid physical disruption of the power system; 2) Strategies to speed the process of putting the system back together after physical disruption; and 3) Strategies to assume the continued provision of critical social services when grid electricity is not available.    Because the power system is spread out across the landscape, it's inherently vulnerable to both natural and intentional physical damage. In addition to space weather, natural hazards include wildfires, tornadoes, floods, earthquakes, tsunamis, hurricanes, and ice storms.    We all know about the devastation that Hurricanes Sandy and Katrina caused to the power system. Ice storms can be equally devastating. The 1998 ice storm in Quebec and Ontario is a vivid illustration of the power system's vulnerability to natural hazards. It collapsed miles of high-voltage power lines blacking out over 2-1/2 million customers in Canada and the United States, caused damages of over $2-1/2 billion, involved 28 deaths in Canada and 17 in the United States, and left some people without power in the dead of winter for many weeks.    Of course, we can't avoid hurricanes and ice storms but we can make the high-voltage power system much more resilient. Twenty-five years ago, a report by the Congressional Office of Technology Assessment noted that the power system is vulnerable to attackers using ``just high-powered rifles.'' A terrorist organization that wanted to cause a massive disruption to the U.S. power system could order rifles and armor-piercing bullets on the internet, place sharpshooters in the back of station wagons like the 2002 Washington snipers, and from a distance put holes in carefully selected sets of critical high-voltage power transformers. The 2013 rifle attack on the 500 kV substation in Congresswoman Lofgren's district vividly illustrates the risk.    In a National Academy report I chaired on terrorism and the power system, we recommended replacing chain-link fences that surrounded many large substations with robust and opaque barriers, as well as a variety of other steps to limit access, increase security, and to harden the system. Progress has been made, but more is needed.    Our Academy report also recommended that the Department of Homeland Security and the Department of Energy develop a stockpile of emergency replacement transformers, an idea first studied years ago by EPRI. Between 2012 and 2014, DHS demonstrated this idea, but there's an urgent need to move beyond demonstration to implement a stockpile.    Earlier this month, Paul Parfomak at CRS prepared an excellent report on power transformers and I urge the Committee to give his comprehensive summary a careful reading.    The power industry is well organized to deal with damage from a range of normal disasters. However, there's a need to better address recovery from larger events. In my written testimony I've elaborated on options and on efforts by several groups to reduce vulnerabilities.    Equally important, the nation should take steps to assure that critical social services can continue to operate when the power system goes down, whatever the cause. Key strategies include: LED traffic lights with solar cell and battery backup so that traffic doesn't snarl and block emergency vehicles in key transportation corridors; more systematic and reliable use of backup generators; cell phone and other communication systems that will remain intact and continue to operate not just for hours but for days; and greater use of smart meters and microgrids to allow local islands of power to continue to support key social services.    I've run two meetings at the National Academy on power system resilience, the more recent under the auspices of the Resilient America Roundtable that I chair. Web addresses for the video of those meetings are provided in my written testimony.    Thanks very much for your attention.</t>
   </si>
   <si>
@@ -388,9 +361,6 @@
     <t xml:space="preserve">    Chairman Loudermilk. The Chair now recognizes the gentleman from Florida, Mr. Posey.</t>
   </si>
   <si>
-    <t>Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you very much, Mr. Chairman.    Thank you, witnesses, for appearing today. And, Mr. Chairman, I thank you especially for holding this hearing. This issue is so vitally important to the national security of our country and I think possibly ultimately the survival of our species.    The New York Times had a bestseller for a while. It's called ``One Second After'' by William Forstchen. I assume you all have read that before?</t>
   </si>
   <si>
@@ -493,9 +463,6 @@
     <t>412192</t>
   </si>
   <si>
-    <t>Ed Perlmutter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chair. You know, the purpose of this is we're a very connected society obviously, and that connectedness is great for comfort, for convenience, for efficiency, but it has an obvious downside, which is a potential domino effect of it all failing at once, whether it's a nuclear device, it's cybersecurity, it's space weather, it's just some huge planetary Earth kind of weather thing.    So, Dr. Baker, I want to start with you real quick and then to you, Ms. Bartol, and then I'm going to yield the balance of my time to Mr. Takano.    Given where we are, if you had your wish list, what would be the things we could do to predict better and more quickly the space weather events you talked about to minimize the damage that might come from a big event?</t>
   </si>
   <si>
@@ -526,9 +493,6 @@
     <t xml:space="preserve">    Mr. Perlmutter. I yield the balance of my time to the gentleman from California.</t>
   </si>
   <si>
-    <t>Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Dr. Morgan, what are microgrids and would they be useful--a useful tool that could be--that could enable communities to withstand and recover faster from high-impact events?</t>
   </si>
   <si>
@@ -556,9 +520,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much. And, again, Mr. Chairman, I appreciate your leadership on this issue. This is an issue that is vital to our country's safety and security, and frankly, this is the first detailed hearing I've been to on it. I congratulate you for stepping up and providing that leadership.    And I'd also like to associate myself with Mr. Takano's line of questioning, which was right on target. And--but I would like to disassociate myself with Mr. Grayson's line of questioning.</t>
   </si>
   <si>
@@ -584,9 +545,6 @@
   </si>
   <si>
     <t>412460</t>
-  </si>
-  <si>
-    <t>Bill Johnson</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Again, I agree this is a very, very important topic and I appreciate our panel being here with us today.    Dr. Baker, you know, in 1989 a geomagnetic disturbance brought on by a solar weather event caused millions of Canadians to lose their power for approximately nine hours. The grid in that situation collapsed within 92 seconds of the geomagnetic disturbance event. If a similar event occurred today almost 30 years later, would there be more of a warning? Would we know about it in advance?</t>
@@ -1105,11 +1063,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1131,11 +1087,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1155,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1183,11 +1135,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1207,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1235,11 +1183,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1259,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1287,11 +1231,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1311,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1339,11 +1279,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1363,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1391,11 +1327,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1415,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1443,11 +1375,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1467,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1495,11 +1423,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1519,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1547,11 +1471,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1571,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1599,11 +1519,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1623,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1651,11 +1567,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1675,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>38</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1703,11 +1615,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1727,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1755,11 +1663,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1779,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1805,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1831,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1857,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1883,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1909,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1935,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1961,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1987,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2013,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2039,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2065,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2091,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2117,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2143,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2171,11 +2047,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2195,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2221,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2247,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2273,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2299,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2325,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2351,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2377,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2403,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2429,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2455,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2481,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2507,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2533,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2559,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2585,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2611,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2637,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2663,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2689,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2715,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2741,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
-      </c>
-      <c r="G65" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2767,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2793,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
-      </c>
-      <c r="G67" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2819,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2845,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2871,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2897,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2923,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2949,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2975,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3001,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
-      </c>
-      <c r="G75" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3027,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3053,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3079,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3105,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3131,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3157,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G81" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3183,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3209,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
-      </c>
-      <c r="G83" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3235,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3261,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3287,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3313,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3339,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3365,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
-      </c>
-      <c r="G89" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3391,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3417,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
-      </c>
-      <c r="G91" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3443,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3469,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
-      </c>
-      <c r="G93" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3495,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3523,11 +3295,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3547,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3573,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
-      </c>
-      <c r="G97" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3599,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3625,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
-      </c>
-      <c r="G99" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3651,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3677,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
-      </c>
-      <c r="G101" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3703,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3731,11 +3487,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3755,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
-      </c>
-      <c r="G104" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3781,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
-      </c>
-      <c r="G105" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3807,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3833,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G107" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3859,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3885,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>27</v>
-      </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3911,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3937,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3963,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3989,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4015,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4041,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4067,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4093,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>27</v>
-      </c>
-      <c r="G117" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4119,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4145,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>27</v>
-      </c>
-      <c r="G119" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4171,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4197,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>27</v>
-      </c>
-      <c r="G121" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4223,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4249,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>27</v>
-      </c>
-      <c r="G123" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4275,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4301,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>27</v>
-      </c>
-      <c r="G125" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4327,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4353,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>27</v>
-      </c>
-      <c r="G127" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4379,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4405,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
-      </c>
-      <c r="G129" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4431,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4457,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
-      </c>
-      <c r="G131" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4483,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4509,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
-      </c>
-      <c r="G133" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4535,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4561,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
-      </c>
-      <c r="G135" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4587,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4615,11 +4303,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4639,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>158</v>
-      </c>
-      <c r="G138" t="s">
-        <v>159</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4665,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>27</v>
-      </c>
-      <c r="G139" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4691,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
-      </c>
-      <c r="G140" t="s">
-        <v>159</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4717,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>27</v>
-      </c>
-      <c r="G141" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4743,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>158</v>
-      </c>
-      <c r="G142" t="s">
-        <v>159</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4769,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>27</v>
-      </c>
-      <c r="G143" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4795,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>158</v>
-      </c>
-      <c r="G144" t="s">
-        <v>159</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4821,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>27</v>
-      </c>
-      <c r="G145" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4847,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>158</v>
-      </c>
-      <c r="G146" t="s">
-        <v>159</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4873,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>27</v>
-      </c>
-      <c r="G147" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4899,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
+        <v>148</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
         <v>158</v>
-      </c>
-      <c r="G148" t="s">
-        <v>159</v>
-      </c>
-      <c r="H148" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4925,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>27</v>
-      </c>
-      <c r="G149" t="s">
-        <v>170</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4951,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
-      </c>
-      <c r="G150" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4977,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>27</v>
-      </c>
-      <c r="G151" t="s">
-        <v>170</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5005,11 +4663,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5029,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>158</v>
-      </c>
-      <c r="G153" t="s">
-        <v>159</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5057,11 +4711,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5081,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>158</v>
-      </c>
-      <c r="G155" t="s">
-        <v>159</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5109,11 +4759,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5133,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>179</v>
-      </c>
-      <c r="G157" t="s">
-        <v>180</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5159,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5185,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>179</v>
-      </c>
-      <c r="G159" t="s">
-        <v>180</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5211,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>27</v>
-      </c>
-      <c r="G160" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5237,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>179</v>
-      </c>
-      <c r="G161" t="s">
-        <v>180</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5263,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
-      </c>
-      <c r="G162" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5289,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>179</v>
-      </c>
-      <c r="G163" t="s">
-        <v>180</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5317,11 +4951,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5341,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>189</v>
-      </c>
-      <c r="G165" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5367,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>27</v>
-      </c>
-      <c r="G166" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5393,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>189</v>
-      </c>
-      <c r="G167" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5419,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>27</v>
-      </c>
-      <c r="G168" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5445,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>189</v>
-      </c>
-      <c r="G169" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5471,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>27</v>
-      </c>
-      <c r="G170" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5497,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>189</v>
-      </c>
-      <c r="G171" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5523,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>27</v>
-      </c>
-      <c r="G172" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5549,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>189</v>
-      </c>
-      <c r="G173" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5575,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>27</v>
-      </c>
-      <c r="G174" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5601,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>189</v>
-      </c>
-      <c r="G175" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5627,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>27</v>
-      </c>
-      <c r="G176" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5653,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
+        <v>176</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
         <v>189</v>
-      </c>
-      <c r="G177" t="s">
-        <v>190</v>
-      </c>
-      <c r="H177" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5679,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>27</v>
-      </c>
-      <c r="G178" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5705,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>189</v>
-      </c>
-      <c r="G179" t="s">
+        <v>176</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
         <v>190</v>
-      </c>
-      <c r="H179" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5731,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>27</v>
-      </c>
-      <c r="G180" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5757,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>189</v>
-      </c>
-      <c r="G181" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5783,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>27</v>
-      </c>
-      <c r="G182" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5809,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>189</v>
-      </c>
-      <c r="G183" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5835,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>27</v>
-      </c>
-      <c r="G184" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5861,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>189</v>
-      </c>
-      <c r="G185" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5887,13 +5477,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>27</v>
-      </c>
-      <c r="G186" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5913,13 +5501,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>189</v>
-      </c>
-      <c r="G187" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5939,13 +5525,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>27</v>
-      </c>
-      <c r="G188" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5965,13 +5549,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>189</v>
-      </c>
-      <c r="G189" t="s">
-        <v>190</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5993,11 +5575,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6017,13 +5597,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>27</v>
-      </c>
-      <c r="G191" t="s">
-        <v>170</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6043,13 +5621,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
-      </c>
-      <c r="G192" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6069,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>27</v>
-      </c>
-      <c r="G193" t="s">
-        <v>170</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6095,13 +5669,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
-      </c>
-      <c r="G194" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6121,13 +5693,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>27</v>
-      </c>
-      <c r="G195" t="s">
-        <v>170</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6147,13 +5717,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
-      </c>
-      <c r="G196" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6173,13 +5741,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>158</v>
-      </c>
-      <c r="G197" t="s">
-        <v>159</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6199,13 +5765,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
-      </c>
-      <c r="G198" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6225,13 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>27</v>
-      </c>
-      <c r="G199" t="s">
-        <v>170</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6251,13 +5813,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
-      </c>
-      <c r="G200" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6277,13 +5837,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>27</v>
-      </c>
-      <c r="G201" t="s">
-        <v>170</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6303,13 +5861,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
-      </c>
-      <c r="G202" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6329,13 +5885,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>27</v>
-      </c>
-      <c r="G203" t="s">
-        <v>170</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6355,13 +5909,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
-      </c>
-      <c r="G204" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6381,13 +5933,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>27</v>
-      </c>
-      <c r="G205" t="s">
-        <v>170</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97756.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97756.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Loudermilk. The Subcommittee on Oversight and Energy will come to order.    Without objection, the Chair is authorized to declare recess of the Subcommittee at any time.    Good morning. I would like to thank our witnesses for being here today. I appreciate the witnesses' patience and understanding as we had to postpone this hearing from July. And I look forward to the testimony today that will help us examine the vulnerabilities of America's power supply.    Welcome to today's joint subcommittee hearing entitled ``Examining the Vulnerabilities of America's Power Supply.'' Due to time constraints and in the interest of allowing our witnesses to be heard and their questions answered, I will submit my opening statement for the record and I encourage others to do so as well.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Mr. Chairman, respecting your fine example, I will also submit mine for the record.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you. My opening statement is that I submit my opening statement for the record. Welcome.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Grayson</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grayson. Ditto.</t>
   </si>
   <si>
@@ -88,24 +115,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Lordan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lordan. Good morning, Chairman Weber and Mr. Loudermilk, Vice Chairman Knight and Johnson, Ranking Members Mr. Beyer, and members of the subcommittees. I am Richard Lordan, Senior Technical Executive at EPRI Transmission. I'm pleased to testify today on vulnerabilities of the electric grid.    For those of you who don't know, EPRI is a 501(c)(3) nonprofit organization that conducts research and development relating to generation, delivery, and use of electricity for the benefit of the public. EPRI's members represent approximately 90 percent of the electricity generated and delivered in the United States. International participation extends to over 30 countries.    So my testimony is going to be kind of in two parts. One is on the general vulnerability of the grid and then I'm going to bore down on one threat which is electromagnetic pulse.    When I talk about the vulnerability of the grid, I'm really talking about vulnerability to high-impact, low-frequency events. They called them HILF events, and they are rare but they have a high impact. And some of these things include natural events like severe weather, earthquakes, geomagnetic disturbances, and also manmade threats like physical security and EMP, which I'm going to talk about today.    So you asked about the vulnerability of the grid, and there are inherent vulnerabilities in the grid to these threats because the severity is generally higher than the design basis for the system. To completely eliminate these vulnerabilities would be cost prohibitive. It would defeat the industry's objective of providing reliable, safe, environmentally acceptable, and affordable power.    EPRI supports a prudent approach where you assess the vulnerabilities from all of these threats, calculate the impact should these events occur, and develop cost-effective countermeasures that improve transmission system resiliency.    I'm now going to talk about EMP with a comparison to geomagnetic disturbance. EMP and GMD are often conflated but there are important differences that I'll highlight. Dr. Baker could probably add some more. EMP, electromagnetic pulse, refers to a very intense pulse of electromagnetic energy typically caused by the detonation of a nuclear device or other high-energy explosive device.    There are three stages of an EMP and I'm pretty sure you know what they are but I'll do it again: E1, E2, and E3. The E1 is characterized by an incredibly fast rise time high-energy pulse. It has the ability to destroy electronics in the power system, and it affects itself by the electric field itself or by coupling to wires that are attached to these devices.    The E2 is similar to lightning and consequently can result in damage to electronics and potential flashover of distribution class insulation.    E3 is characterized by a longer duration, low-frequency content similar to GMD, and that's why people talk about EMP and GMD together. But the E3 part of EMP is much shorter than a GMD, and therefore, it will not have the consequence of transformer overheating and failure. It does have the ability to saturate transformers and transformers will create harmonics. They'll consume reactive power and there may be voltage collapse on the system.    With regard to risk management of these threats, so we talked about EMP and vulnerability. EPRI is leading an effort with the industry to characterize each of these threats, whether it's EMP, GMD, physical security or cyber, characterize the threat, then identify the key component--key components in the system and understand the vulnerability of those components, then assess the impact should this event happen. What's the effect on the system and what's the societal cost? Then we develop and assess mitigation strategies that will buy down that risk.    And lastly, after we've done all the different threats one by one, we support looking sideways and seeing, hey, are there any mitigation strategies that also support multiple threat that would improve your business case by increasing transmission resiliency?    So thank you again for inviting EPRI here today and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Loudermilk. I now recognize Ms. Bartol for five minutes to present her testimony.</t>
   </si>
   <si>
+    <t>Bartol</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bartol. Good morning, Mr. Chairman, and Members of the Subcommittee. My name is Nadya Bartol. I'm the Vice President of Industry Affairs and Cybersecurity Strategist at the Utilities Telecom Council. Thank you for the opportunity to testify today about the vulnerabilities of America's power supply.    UTC is a global trade association for the communications and information technology interest of electric, gas, and water utilities; pipeline companies; and other critical infrastructure industries.    Cybersecurity is a serious concern with respect to great vulnerability. It is a complex challenge that requires comprehensive process-driven solutions. It is and will remain a risk we must actively manage as long as society wants to have the conveniences of a modern world increasingly underpinned and enabled by smart interconnected technologies.    Some of the variables in the complex cybersecurity grid vulnerability landscape are outside of our span of control. Although there are a number of variables within our control, there's no easy way to fix them either, as mitigating those variables to an acceptable level may take a long time.    With respect to what is outside of our span of control, the grid is vulnerable to a variety of threats, including individual hackers, activist groups, cyber criminals, and nation states.    With respect to what is within our span of control, those vulnerabilities are related to the shortage of qualified cybersecurity workforce, age of legacy infrastructure, lack of legal framework for information sharing, and evolving practices for assuring security in supplier products and services.    The 2015 Global Information Security Workforce Study, an international survey of nearly 14,000 information security professionals published by ISC2, estimates the shortfall in the global information security workforce to reach 1.5 million by 2020. This problem is exacerbated in the energy space because we have two different sets of systems: systems that run the grid, referred to as operational technology (OT) and business systems that we refer to as information technology (IT). These two sets of systems command a different set of priorities that are served by individuals with different backgrounds, different vocabularies, and different goals and objectives.    We need to educate and train more people with a skill set blended across those two types of systems, IT and OT, in order to make a noticeable difference. This challenge impacts the energy utilities, numerous vendors that supply systems for the grid, as well as the integrators who design and integrate larger, more complex systems for utilities. The deficit of cybersecurity workforce permeates all levels of the energy utility organization, and the same is true for the entire energy utility ICS and ICT supply chain.    The technology of the grid is in itself a cybersecurity concern. The grid is based on layers that have accumulated over time, and the legacy structure was not designed to be secured because security was not a concern when that infrastructure was implemented. And utilities have been utilizing a variety of technologies, methods, and techniques to help manage and mitigate some legacy infrastructure's vulnerabilities. However, this is an ongoing concern, and acquiring and implementing such technologies, modifying network architectures, or replacing legacy infrastructure takes time and resources.    The energy sector suffers from inconsistent threat information throughout the sector. Progress has been made but we still need a legal framework for information sharing that would remove the barriers that remain. Building robust systems that can be resilient in the face of cybersecurity threats requires considering security from inception. Utilities rely on vendors for systems design, development, implementation, and maintenance and are working on their approaches to productively communicate their assurance needs and then monitor the underperformance against those.    Recently published standards and best practices provide requirements, methods, and techniques that help address this challenge. This includes NIST Cybersecurity Framework which is broadly used in the energy space.    Cybersecurity is a complex challenge that cannot be solved overnight or permanently. It does not lend itself to a cookbook of solutions, nor can we envision every possible scenario to mitigate. We're dealing with an asymmetric threat. However, we can act to reduce the cyber-related vulnerabilities of the grid. These actions include increasing supply of cybersecurity workforce that understands both IT and OT contexts, financially enable utilities to upgrade or phase out their legacy infrastructures, enacting information-sharing legislation that removes current barriers, and supporting industry-based standardization and NIST framework implementation to help integrate security considerations into current and future technologies.    I look forward to further dialogue.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Loudermilk. Thank you, Ms. Bartol.    I now recognize Dr. Baker for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Baker</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Baker. Thank you, Mr. Chairman.    Extreme space weather events pose a threat to all forms of modern high technology, particularly the backbone provided by the electric power grid. The occurrence of severe space weather impacting our nation's infrastructure is not a question of ``if'' but ``when.'' My group studied a powerful solar storm that occurred just three years ago on the 23rd of July 2012. This solar eruption produced a coronal mass ejection that moved from the sun's to the distance of Earth orbit in only about 15 hours. This is among the very fastest-moving solar blasts ever witnessed in the space age. It was a ferocious disturbance that fortunately was directed somewhat away from Earth. We realized that a direct hit by such an extreme coronal mass ejection would cause widespread power blackouts, disabling everything that uses electricity.    According to a 2009 study from the U.S. National Academies, the total economic impact from an event of this sort could exceed $2 trillion or 20 times greater than the cost of Hurricane Katrina. Multi-ton power grid transformers disabled by such a storm could take years to repair or replace.    The current capability of our technological society to predict space weather is primitive. Through programs supported by the National Science Foundation, NASA, NOAA, we observe the sun, and we can see the general properties of the expansion of the solar atmosphere and powerful solar storms heading in our general direction. However, the measurements at the first Lagrangian point provide only about 4five minutes of warning at best as to what will impact Earth. This is insufficient time for implementing most mitigation strategies.    I spent two sobering days on the 20th and 21st of July at the 6th Electric Infrastructure Security Summit here on Capitol Hill. Representatives from over 20 world nations attended the EIS Summit. CEOs from key electric power utilities and leaders from the U.S. military and several federal agencies spent time grappling with the immense challenges that would result if nuclear EMP or geomagnetic disturbances were to take down the North American power grid. In the EIS world, such events are termed ``Black Sky'' days. The 100-plus EIS delegates acknowledged that the collapse of the power system would be devastating, and that industry, government, and academia must all work together to the greatest degree possible to minimize the impact when such a Black Sky day occurs.    In space weather, as in many things, forewarned is forearmed. Many studies have shown that improved prediction of space weather would have important economic impacts on our society in the same way that improved terrestrial weather forecasts have greatly improved our economic wellbeing and the quality of daily lives.    Is our problem of improving space weather forecasting hopeless? Absolutely not. But it will require a substantially increased and dedicated government research program. Government-funded programs must be chosen to advance our civilization, our strategic importance in the world. In fact, efforts that would result in sufficient space weather prediction capability would be among our highest national--should be among our highest national priorities. Unfortunately, today's federal investments and policies are not aligned with this set of space weather needs.    The U.S. National Academies published a Decadal Survey in Solar and Space Physics in 2012. I was privileged to chair that activity. The Decadal Survey established the priorities for research relevant for space weather and basic research for NASA and NSF in the years 2013 to 2022. However, to date, NASA has not requested, nor has Congress funded, any of the significant initiatives recommended by the Decadal Survey.    The Heliophysics Division of NASA, which has the main responsibility for the research required to improve space weather predictions, is NASA's smallest science division. NSF space weather activities are only a small part of the geosciences division with many high priorities for other research areas. NOAA has the responsibility for making the actual space weather forecasts through the Boulder space-based--Space Weather Prediction Center, but these forecasts can only be based upon larger research efforts supported by the NSF and NASA.    A very substantial program was envisioned in the Decadal Survey that would build on the--a true operational 24/7 national space weather program. This would be a large investment but is essential for our nation's future. A key activity now underway is--by the federal agencies to address the Federal Space Weather Framework, as identified by the acronym SWORM with funding appropriately above the Decadal minimum level, the Decadal plan and the SWORM implementation plan could yield the required predictions in sufficient time.    The existential threat to our society represented by severe space weather events, especially to the national power grid, demand a similar national commitment even in these times of fiscal constraint. The nation should issue a challenge to the space research community to provide the predictive capability for space weather sufficient to make our economy more resilient and to reduce to an acceptable level our national vulnerabilities. The nation should recognize that this is a pressing challenge and that substantial resources will be required. In return, the space research community must give its common pledge that it will deliver what the nation requires. I would respectfully suggest that the time for budgetary and policy action is now.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Loudermilk. Thank you, Dr. Baker.    I now recognize Dr. Morgan for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Morgan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Morgan. Good morning. And thanks very much to Chairman Smith, Loudermilk, and Weber, and Ranking Members Johnson, Beyer, and Grayson for the opportunity to testify today.    As you heard, my name is Granger Morgan. I'm a professor at Carnegie Mellon, where I work on issues in engineering and public policy, including issues in the power system, often with the National Academy of Sciences, of which I'm a member.    Unlike food and water, none of us consume electricity directly. Rather, we consume the services that electricity makes possible, and those services have become ever more critical to the safe, effective, and productive functioning of our lives as individuals and to our society and hence also to our national security.    Today, I'll talk about three things: 1) Strategies to avoid physical disruption of the power system; 2) Strategies to speed the process of putting the system back together after physical disruption; and 3) Strategies to assume the continued provision of critical social services when grid electricity is not available.    Because the power system is spread out across the landscape, it's inherently vulnerable to both natural and intentional physical damage. In addition to space weather, natural hazards include wildfires, tornadoes, floods, earthquakes, tsunamis, hurricanes, and ice storms.    We all know about the devastation that Hurricanes Sandy and Katrina caused to the power system. Ice storms can be equally devastating. The 1998 ice storm in Quebec and Ontario is a vivid illustration of the power system's vulnerability to natural hazards. It collapsed miles of high-voltage power lines blacking out over 2-1/2 million customers in Canada and the United States, caused damages of over $2-1/2 billion, involved 28 deaths in Canada and 17 in the United States, and left some people without power in the dead of winter for many weeks.    Of course, we can't avoid hurricanes and ice storms but we can make the high-voltage power system much more resilient. Twenty-five years ago, a report by the Congressional Office of Technology Assessment noted that the power system is vulnerable to attackers using ``just high-powered rifles.'' A terrorist organization that wanted to cause a massive disruption to the U.S. power system could order rifles and armor-piercing bullets on the internet, place sharpshooters in the back of station wagons like the 2002 Washington snipers, and from a distance put holes in carefully selected sets of critical high-voltage power transformers. The 2013 rifle attack on the 500 kV substation in Congresswoman Lofgren's district vividly illustrates the risk.    In a National Academy report I chaired on terrorism and the power system, we recommended replacing chain-link fences that surrounded many large substations with robust and opaque barriers, as well as a variety of other steps to limit access, increase security, and to harden the system. Progress has been made, but more is needed.    Our Academy report also recommended that the Department of Homeland Security and the Department of Energy develop a stockpile of emergency replacement transformers, an idea first studied years ago by EPRI. Between 2012 and 2014, DHS demonstrated this idea, but there's an urgent need to move beyond demonstration to implement a stockpile.    Earlier this month, Paul Parfomak at CRS prepared an excellent report on power transformers and I urge the Committee to give his comprehensive summary a careful reading.    The power industry is well organized to deal with damage from a range of normal disasters. However, there's a need to better address recovery from larger events. In my written testimony I've elaborated on options and on efforts by several groups to reduce vulnerabilities.    Equally important, the nation should take steps to assure that critical social services can continue to operate when the power system goes down, whatever the cause. Key strategies include: LED traffic lights with solar cell and battery backup so that traffic doesn't snarl and block emergency vehicles in key transportation corridors; more systematic and reliable use of backup generators; cell phone and other communication systems that will remain intact and continue to operate not just for hours but for days; and greater use of smart meters and microgrids to allow local islands of power to continue to support key social services.    I've run two meetings at the National Academy on power system resilience, the more recent under the auspices of the Resilient America Roundtable that I chair. Web addresses for the video of those meetings are provided in my written testimony.    Thanks very much for your attention.</t>
   </si>
   <si>
@@ -361,6 +400,9 @@
     <t xml:space="preserve">    Chairman Loudermilk. The Chair now recognizes the gentleman from Florida, Mr. Posey.</t>
   </si>
   <si>
+    <t>Posey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you very much, Mr. Chairman.    Thank you, witnesses, for appearing today. And, Mr. Chairman, I thank you especially for holding this hearing. This issue is so vitally important to the national security of our country and I think possibly ultimately the survival of our species.    The New York Times had a bestseller for a while. It's called ``One Second After'' by William Forstchen. I assume you all have read that before?</t>
   </si>
   <si>
@@ -463,6 +505,12 @@
     <t>412192</t>
   </si>
   <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chair. You know, the purpose of this is we're a very connected society obviously, and that connectedness is great for comfort, for convenience, for efficiency, but it has an obvious downside, which is a potential domino effect of it all failing at once, whether it's a nuclear device, it's cybersecurity, it's space weather, it's just some huge planetary Earth kind of weather thing.    So, Dr. Baker, I want to start with you real quick and then to you, Ms. Bartol, and then I'm going to yield the balance of my time to Mr. Takano.    Given where we are, if you had your wish list, what would be the things we could do to predict better and more quickly the space weather events you talked about to minimize the damage that might come from a big event?</t>
   </si>
   <si>
@@ -493,6 +541,9 @@
     <t xml:space="preserve">    Mr. Perlmutter. I yield the balance of my time to the gentleman from California.</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Dr. Morgan, what are microgrids and would they be useful--a useful tool that could be--that could enable communities to withstand and recover faster from high-impact events?</t>
   </si>
   <si>
@@ -520,6 +571,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much. And, again, Mr. Chairman, I appreciate your leadership on this issue. This is an issue that is vital to our country's safety and security, and frankly, this is the first detailed hearing I've been to on it. I congratulate you for stepping up and providing that leadership.    And I'd also like to associate myself with Mr. Takano's line of questioning, which was right on target. And--but I would like to disassociate myself with Mr. Grayson's line of questioning.</t>
   </si>
   <si>
@@ -545,6 +602,12 @@
   </si>
   <si>
     <t>412460</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Bill</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Again, I agree this is a very, very important topic and I appreciate our panel being here with us today.    Dr. Baker, you know, in 1989 a geomagnetic disturbance brought on by a solar weather event caused millions of Canadians to lose their power for approximately nine hours. The grid in that situation collapsed within 92 seconds of the geomagnetic disturbance event. If a similar event occurred today almost 30 years later, would there be more of a warning? Would we know about it in advance?</t>
@@ -1013,7 +1076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1021,7 +1084,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,4901 +1106,5698 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
       <c r="H54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>23</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
       <c r="H70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
       <c r="H72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
       <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
       <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>23</v>
+      </c>
       <c r="H78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
       <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
       <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>23</v>
+      </c>
       <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
       <c r="H86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
       <c r="H88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>23</v>
+      </c>
       <c r="H90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
       <c r="H92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G93" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>23</v>
+      </c>
       <c r="H94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G96" t="s">
+        <v>28</v>
+      </c>
       <c r="H96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G98" t="s">
+        <v>28</v>
+      </c>
       <c r="H98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
       <c r="H100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
       <c r="H102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G104" t="s">
+        <v>128</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G105" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G106" t="s">
+        <v>128</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G107" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s">
+        <v>128</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
+        <v>128</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G111" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
+        <v>128</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G113" t="s">
+        <v>39</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>128</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G115" t="s">
+        <v>39</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
+        <v>128</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G117" t="s">
+        <v>39</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G118" t="s">
+        <v>128</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G119" t="s">
+        <v>39</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G120" t="s">
+        <v>128</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G121" t="s">
+        <v>39</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s">
+        <v>128</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G123" t="s">
+        <v>39</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s">
+        <v>128</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G125" t="s">
+        <v>39</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G126" t="s">
+        <v>128</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G128" t="s">
+        <v>128</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G129" t="s">
+        <v>42</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G130" t="s">
+        <v>128</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G131" t="s">
+        <v>42</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s">
+        <v>128</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
+        <v>42</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G134" t="s">
+        <v>128</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G135" t="s">
+        <v>42</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G136" t="s">
+        <v>128</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>148</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G138" t="s">
+        <v>163</v>
+      </c>
       <c r="H138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G139" t="s">
+        <v>39</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>148</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G140" t="s">
+        <v>163</v>
+      </c>
       <c r="H140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G141" t="s">
+        <v>39</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>148</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G142" t="s">
+        <v>163</v>
+      </c>
       <c r="H142" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G143" t="s">
+        <v>39</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>148</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G144" t="s">
+        <v>163</v>
+      </c>
       <c r="H144" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G145" t="s">
+        <v>39</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>148</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G146" t="s">
+        <v>163</v>
+      </c>
       <c r="H146" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G147" t="s">
+        <v>36</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>148</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G148" t="s">
+        <v>163</v>
+      </c>
       <c r="H148" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I148" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G149" t="s">
+        <v>175</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G150" t="s">
+        <v>42</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G151" t="s">
+        <v>175</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>148</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G153" t="s">
+        <v>163</v>
+      </c>
       <c r="H153" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I153" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>148</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G155" t="s">
+        <v>163</v>
+      </c>
       <c r="H155" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I155" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>167</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G157" t="s">
+        <v>185</v>
+      </c>
       <c r="H157" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G158" t="s">
+        <v>28</v>
+      </c>
       <c r="H158" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>167</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G159" t="s">
+        <v>185</v>
+      </c>
       <c r="H159" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G160" t="s">
+        <v>39</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>167</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G161" t="s">
+        <v>185</v>
+      </c>
       <c r="H161" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G162" t="s">
+        <v>42</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>167</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G163" t="s">
+        <v>185</v>
+      </c>
       <c r="H163" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
       <c r="H164" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>176</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G165" t="s">
+        <v>196</v>
+      </c>
       <c r="H165" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G166" t="s">
+        <v>39</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>176</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G167" t="s">
+        <v>196</v>
+      </c>
       <c r="H167" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G168" t="s">
+        <v>39</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>176</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G169" t="s">
+        <v>196</v>
+      </c>
       <c r="H169" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I169" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G170" t="s">
+        <v>39</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>176</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G171" t="s">
+        <v>196</v>
+      </c>
       <c r="H171" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I171" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G172" t="s">
+        <v>39</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>176</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G173" t="s">
+        <v>196</v>
+      </c>
       <c r="H173" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>23</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G174" t="s">
+        <v>39</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>176</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G175" t="s">
+        <v>196</v>
+      </c>
       <c r="H175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I175" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G176" t="s">
+        <v>39</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>176</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G177" t="s">
+        <v>196</v>
+      </c>
       <c r="H177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G178" t="s">
+        <v>39</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>176</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G179" t="s">
+        <v>196</v>
+      </c>
       <c r="H179" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I179" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G180" t="s">
+        <v>39</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>176</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G181" t="s">
+        <v>196</v>
+      </c>
       <c r="H181" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I181" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>23</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G182" t="s">
+        <v>39</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>176</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G183" t="s">
+        <v>196</v>
+      </c>
       <c r="H183" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I183" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>23</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G184" t="s">
+        <v>39</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>176</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G185" t="s">
+        <v>196</v>
+      </c>
       <c r="H185" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I185" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>23</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G186" t="s">
+        <v>39</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>176</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G187" t="s">
+        <v>196</v>
+      </c>
       <c r="H187" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I187" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>23</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G188" t="s">
+        <v>39</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>176</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G189" t="s">
+        <v>196</v>
+      </c>
       <c r="H189" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I189" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>23</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G191" t="s">
+        <v>175</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>23</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G192" t="s">
+        <v>42</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>23</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G193" t="s">
+        <v>175</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>23</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G194" t="s">
+        <v>42</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>23</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G195" t="s">
+        <v>175</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>23</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G196" t="s">
+        <v>42</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>148</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G197" t="s">
+        <v>163</v>
+      </c>
       <c r="H197" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I197" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>23</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G198" t="s">
+        <v>42</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>23</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G199" t="s">
+        <v>175</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G200" t="s">
+        <v>42</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>23</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G201" t="s">
+        <v>175</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>23</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>23</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G203" t="s">
+        <v>175</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>23</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G204" t="s">
+        <v>42</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>23</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>216</v>
+        <v>32</v>
+      </c>
+      <c r="G205" t="s">
+        <v>175</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97756.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97756.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Loudermilk</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Weber</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
   </si>
   <si>
     <t>412276</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Grayson</t>
@@ -1076,7 +1088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,7 +1096,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,5695 +1121,6084 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" t="s">
-        <v>42</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" t="s">
-        <v>42</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>42</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" t="s">
-        <v>42</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" t="s">
-        <v>42</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" t="s">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G73" t="s">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" t="s">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" t="s">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" t="s">
-        <v>42</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>42</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G84" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" t="s">
-        <v>33</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>37</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G86" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G89" t="s">
-        <v>42</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H90" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
-      </c>
-      <c r="G91" t="s">
-        <v>42</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G92" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H92" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G93" t="s">
-        <v>42</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H96" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
-      </c>
-      <c r="G97" t="s">
-        <v>42</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
-      </c>
-      <c r="G99" t="s">
-        <v>42</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I100" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
-      </c>
-      <c r="G101" t="s">
-        <v>42</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
-      </c>
-      <c r="G104" t="s">
-        <v>128</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>132</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
-      </c>
-      <c r="G105" t="s">
-        <v>42</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106" t="s">
-        <v>128</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>132</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
-      </c>
-      <c r="G107" t="s">
-        <v>33</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>37</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
-      </c>
-      <c r="G108" t="s">
-        <v>128</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>132</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
-      </c>
-      <c r="G109" t="s">
-        <v>33</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>37</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
-      </c>
-      <c r="G110" t="s">
-        <v>128</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>132</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
-      </c>
-      <c r="G111" t="s">
-        <v>33</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>37</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>128</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>132</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
-      </c>
-      <c r="G113" t="s">
-        <v>39</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>43</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" t="s">
-        <v>128</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>132</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
-      </c>
-      <c r="G115" t="s">
-        <v>39</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>43</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
-      </c>
-      <c r="G116" t="s">
-        <v>128</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>132</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
-      </c>
-      <c r="G117" t="s">
-        <v>39</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>43</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
-      </c>
-      <c r="G118" t="s">
-        <v>128</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>132</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
-      </c>
-      <c r="G119" t="s">
-        <v>39</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>43</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
-      </c>
-      <c r="G120" t="s">
-        <v>128</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>132</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
-      </c>
-      <c r="G121" t="s">
-        <v>39</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>43</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122" t="s">
-        <v>128</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>132</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
-      </c>
-      <c r="G123" t="s">
-        <v>39</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>43</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
-      </c>
-      <c r="G124" t="s">
-        <v>128</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>132</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
-      </c>
-      <c r="G125" t="s">
-        <v>39</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>43</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
-      </c>
-      <c r="G126" t="s">
-        <v>128</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>132</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
-      </c>
-      <c r="G127" t="s">
-        <v>33</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>37</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
-      </c>
-      <c r="G128" t="s">
-        <v>128</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>132</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
-      </c>
-      <c r="G129" t="s">
-        <v>42</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>46</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
-      </c>
-      <c r="G130" t="s">
-        <v>128</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>132</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
-      </c>
-      <c r="G131" t="s">
-        <v>42</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
-      </c>
-      <c r="G132" t="s">
-        <v>128</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>132</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
-      </c>
-      <c r="G133" t="s">
-        <v>42</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>46</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
-      </c>
-      <c r="G134" t="s">
-        <v>128</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>132</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
-      </c>
-      <c r="G135" t="s">
-        <v>42</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>46</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
-      </c>
-      <c r="G136" t="s">
-        <v>128</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>132</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G138" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I138" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
-      </c>
-      <c r="G139" t="s">
-        <v>39</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>43</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G140" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I140" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
-      </c>
-      <c r="G141" t="s">
-        <v>39</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G142" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I142" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
-      </c>
-      <c r="G143" t="s">
-        <v>39</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>43</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G144" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I144" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
-      </c>
-      <c r="G145" t="s">
-        <v>39</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>43</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G146" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I146" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
-      </c>
-      <c r="G147" t="s">
-        <v>36</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>40</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G148" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I148" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
-      </c>
-      <c r="G149" t="s">
-        <v>175</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>179</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
-      </c>
-      <c r="G150" t="s">
-        <v>42</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>46</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
-      </c>
-      <c r="G151" t="s">
-        <v>175</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>179</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G153" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I153" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G155" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I155" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J155" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G157" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I157" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J157" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H158" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I158" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J158" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G159" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I159" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J159" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
-      </c>
-      <c r="G160" t="s">
-        <v>39</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G161" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I161" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J161" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
-      </c>
-      <c r="G162" t="s">
-        <v>42</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>46</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G163" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I163" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J163" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I164" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G165" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I165" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
-      </c>
-      <c r="G166" t="s">
-        <v>39</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>43</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G167" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I167" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J167" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
-      </c>
-      <c r="G168" t="s">
-        <v>39</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>43</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G169" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I169" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J169" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
-      </c>
-      <c r="G170" t="s">
-        <v>39</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>43</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G171" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I171" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J171" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
-      </c>
-      <c r="G172" t="s">
-        <v>39</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>43</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G173" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I173" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J173" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
-      </c>
-      <c r="G174" t="s">
-        <v>39</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>43</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G175" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I175" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J175" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
-      </c>
-      <c r="G176" t="s">
-        <v>39</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>43</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G177" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I177" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
-      </c>
-      <c r="G178" t="s">
-        <v>39</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>43</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G179" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I179" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J179" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
-      </c>
-      <c r="G180" t="s">
-        <v>39</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>43</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G181" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I181" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J181" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
-      </c>
-      <c r="G182" t="s">
-        <v>39</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>43</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G183" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I183" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J183" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
-      </c>
-      <c r="G184" t="s">
-        <v>39</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>43</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G185" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I185" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J185" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
-      </c>
-      <c r="G186" t="s">
-        <v>39</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>43</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G187" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I187" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J187" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
-      </c>
-      <c r="G188" t="s">
-        <v>39</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>43</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G189" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I189" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J189" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
-      </c>
-      <c r="G191" t="s">
-        <v>175</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>179</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
-      </c>
-      <c r="G192" t="s">
-        <v>42</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>46</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
-      </c>
-      <c r="G193" t="s">
-        <v>175</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>179</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
-      </c>
-      <c r="G194" t="s">
-        <v>42</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>46</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
-      </c>
-      <c r="G195" t="s">
-        <v>175</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>179</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
-      </c>
-      <c r="G196" t="s">
-        <v>42</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>46</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G197" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I197" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J197" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
-      </c>
-      <c r="G198" t="s">
-        <v>42</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>46</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
-      </c>
-      <c r="G199" t="s">
-        <v>175</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>179</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
-      </c>
-      <c r="G200" t="s">
-        <v>42</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>46</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
-      </c>
-      <c r="G201" t="s">
-        <v>175</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>179</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
-      </c>
-      <c r="G202" t="s">
-        <v>42</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>46</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
-      </c>
-      <c r="G203" t="s">
-        <v>175</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>179</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
-      </c>
-      <c r="G204" t="s">
-        <v>42</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>46</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
-      </c>
-      <c r="G205" t="s">
-        <v>175</v>
-      </c>
-      <c r="H205" t="s"/>
-      <c r="I205" t="s">
-        <v>237</v>
+        <v>36</v>
+      </c>
+      <c r="G205" t="s"/>
+      <c r="H205" t="s">
+        <v>179</v>
+      </c>
+      <c r="I205" t="s"/>
+      <c r="J205" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
